--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_laag.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_laag.xlsx
@@ -430,25 +430,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2170</v>
+        <v>2168.19025045373</v>
       </c>
       <c r="C2">
-        <v>1067</v>
+        <v>1066.827089534028</v>
       </c>
       <c r="D2">
-        <v>1215</v>
+        <v>1207.57531266709</v>
       </c>
       <c r="E2">
-        <v>2196</v>
+        <v>2196.599662171774</v>
       </c>
       <c r="F2">
-        <v>2171</v>
+        <v>2169.953739032937</v>
       </c>
       <c r="G2">
-        <v>1814</v>
+        <v>1810.682651439943</v>
       </c>
       <c r="H2">
-        <v>2196</v>
+        <v>2197.755167519784</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -456,25 +456,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2184</v>
+        <v>2183.438124058833</v>
       </c>
       <c r="C3">
-        <v>1094</v>
+        <v>1096.168533900459</v>
       </c>
       <c r="D3">
-        <v>1069</v>
+        <v>1063.261003313442</v>
       </c>
       <c r="E3">
-        <v>2201</v>
+        <v>2201.606885761249</v>
       </c>
       <c r="F3">
-        <v>2185</v>
+        <v>2184.514313820853</v>
       </c>
       <c r="G3">
-        <v>1771</v>
+        <v>1768.334091166898</v>
       </c>
       <c r="H3">
-        <v>2201</v>
+        <v>2202.387130431995</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -482,25 +482,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2136</v>
+        <v>2134.223707206921</v>
       </c>
       <c r="C4">
-        <v>1122</v>
+        <v>1121.183306044844</v>
       </c>
       <c r="D4">
-        <v>1060</v>
+        <v>1046.252314260004</v>
       </c>
       <c r="E4">
-        <v>2177</v>
+        <v>2178.408688171938</v>
       </c>
       <c r="F4">
-        <v>2138</v>
+        <v>2137.004174443122</v>
       </c>
       <c r="G4">
-        <v>1780</v>
+        <v>1771.385937107427</v>
       </c>
       <c r="H4">
-        <v>2179</v>
+        <v>2180.219103371565</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -508,25 +508,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2186</v>
+        <v>2184.588446198372</v>
       </c>
       <c r="C5">
-        <v>1123</v>
+        <v>1125.261196947115</v>
       </c>
       <c r="D5">
-        <v>1064</v>
+        <v>1050.716306735508</v>
       </c>
       <c r="E5">
-        <v>2198</v>
+        <v>2198.951043606867</v>
       </c>
       <c r="F5">
-        <v>2186</v>
+        <v>2185.240087232406</v>
       </c>
       <c r="G5">
-        <v>1703</v>
+        <v>1696.724731045043</v>
       </c>
       <c r="H5">
-        <v>2198</v>
+        <v>2199.509380308793</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -534,25 +534,25 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2192</v>
+        <v>2190.810902805146</v>
       </c>
       <c r="C6">
-        <v>1103</v>
+        <v>1103.837453310326</v>
       </c>
       <c r="D6">
-        <v>369</v>
+        <v>362.6284403737303</v>
       </c>
       <c r="E6">
-        <v>2206</v>
+        <v>2206.670585597019</v>
       </c>
       <c r="F6">
-        <v>2193</v>
+        <v>2191.438427965602</v>
       </c>
       <c r="G6">
-        <v>1254</v>
+        <v>1252.015568647364</v>
       </c>
       <c r="H6">
-        <v>2206</v>
+        <v>2207.103148948721</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -560,25 +560,25 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2173</v>
+        <v>2172.524713790897</v>
       </c>
       <c r="C7">
-        <v>1155</v>
+        <v>1154.182764083716</v>
       </c>
       <c r="D7">
-        <v>548</v>
+        <v>535.7477298025481</v>
       </c>
       <c r="E7">
-        <v>2189</v>
+        <v>2191.721997665262</v>
       </c>
       <c r="F7">
-        <v>2174</v>
+        <v>2173.658829612546</v>
       </c>
       <c r="G7">
-        <v>1356</v>
+        <v>1349.580071416546</v>
       </c>
       <c r="H7">
-        <v>2192</v>
+        <v>2192.770205129404</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -586,25 +586,25 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2174</v>
+        <v>2174.232017974375</v>
       </c>
       <c r="C8">
-        <v>1049</v>
+        <v>1048.501688302613</v>
       </c>
       <c r="D8">
-        <v>637</v>
+        <v>633.0908430649812</v>
       </c>
       <c r="E8">
-        <v>2186</v>
+        <v>2188.904419689039</v>
       </c>
       <c r="F8">
-        <v>2174</v>
+        <v>2174.829099415711</v>
       </c>
       <c r="G8">
-        <v>1350</v>
+        <v>1347.754846155285</v>
       </c>
       <c r="H8">
-        <v>2187</v>
+        <v>2189.482557421556</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -612,25 +612,25 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2187</v>
+        <v>2186.103315481719</v>
       </c>
       <c r="C9">
-        <v>1134</v>
+        <v>1134.340219809489</v>
       </c>
       <c r="D9">
-        <v>626</v>
+        <v>616.5541332604442</v>
       </c>
       <c r="E9">
-        <v>2194</v>
+        <v>2194.535756323377</v>
       </c>
       <c r="F9">
-        <v>2188</v>
+        <v>2187.41046822575</v>
       </c>
       <c r="G9">
-        <v>1369</v>
+        <v>1364.57542459144</v>
       </c>
       <c r="H9">
-        <v>2194</v>
+        <v>2195.799347806329</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -638,25 +638,25 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1947</v>
+        <v>1946.701420854897</v>
       </c>
       <c r="C10">
-        <v>1234</v>
+        <v>1228.166133370289</v>
       </c>
       <c r="D10">
-        <v>1029</v>
+        <v>1004.768125513142</v>
       </c>
       <c r="E10">
-        <v>2045</v>
+        <v>2045.207259279136</v>
       </c>
       <c r="F10">
-        <v>1963</v>
+        <v>1963.41524271665</v>
       </c>
       <c r="G10">
-        <v>1673</v>
+        <v>1657.608033392178</v>
       </c>
       <c r="H10">
-        <v>2056</v>
+        <v>2056.801072003444</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -664,25 +664,25 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1896</v>
+        <v>1895.566769401754</v>
       </c>
       <c r="C11">
-        <v>1296</v>
+        <v>1294.365777851517</v>
       </c>
       <c r="D11">
-        <v>856</v>
+        <v>843.8725314057115</v>
       </c>
       <c r="E11">
-        <v>2034</v>
+        <v>2033.936097627198</v>
       </c>
       <c r="F11">
-        <v>1912</v>
+        <v>1912.761164030131</v>
       </c>
       <c r="G11">
-        <v>1642</v>
+        <v>1635.170310488515</v>
       </c>
       <c r="H11">
-        <v>2043</v>
+        <v>2044.274956698688</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -690,25 +690,25 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1636</v>
+        <v>1637.698552672618</v>
       </c>
       <c r="C12">
-        <v>1182</v>
+        <v>1172.687020782348</v>
       </c>
       <c r="D12">
-        <v>210</v>
+        <v>198.0395115404653</v>
       </c>
       <c r="E12">
-        <v>1880</v>
+        <v>1876.610898948367</v>
       </c>
       <c r="F12">
-        <v>1646</v>
+        <v>1646.942019134947</v>
       </c>
       <c r="G12">
-        <v>1263</v>
+        <v>1247.307099901423</v>
       </c>
       <c r="H12">
-        <v>1884</v>
+        <v>1880.46872151288</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -716,25 +716,25 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1928</v>
+        <v>1929.418281600073</v>
       </c>
       <c r="C13">
-        <v>1226</v>
+        <v>1219.485333534142</v>
       </c>
       <c r="D13">
-        <v>780</v>
+        <v>752.61671157398</v>
       </c>
       <c r="E13">
-        <v>2034</v>
+        <v>2034.261254671876</v>
       </c>
       <c r="F13">
-        <v>1942</v>
+        <v>1942.524931502256</v>
       </c>
       <c r="G13">
-        <v>1548</v>
+        <v>1529.951663943509</v>
       </c>
       <c r="H13">
-        <v>2042</v>
+        <v>2043.082140312506</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_laag.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_laag.xlsx
@@ -430,25 +430,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2168.19025045373</v>
+        <v>2161.664478555412</v>
       </c>
       <c r="C2">
-        <v>1066.827089534028</v>
+        <v>1259.515021509692</v>
       </c>
       <c r="D2">
-        <v>1207.57531266709</v>
+        <v>1086.347674277047</v>
       </c>
       <c r="E2">
-        <v>2196.599662171774</v>
+        <v>2190.612819734337</v>
       </c>
       <c r="F2">
-        <v>2169.953739032937</v>
+        <v>2163.494249335985</v>
       </c>
       <c r="G2">
-        <v>1810.682651439943</v>
+        <v>1756.621417788585</v>
       </c>
       <c r="H2">
-        <v>2197.755167519784</v>
+        <v>2191.836608159397</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -456,25 +456,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2183.438124058833</v>
+        <v>2174.162251111631</v>
       </c>
       <c r="C3">
-        <v>1096.168533900459</v>
+        <v>1116.668032735869</v>
       </c>
       <c r="D3">
-        <v>1063.261003313442</v>
+        <v>1055.216169323907</v>
       </c>
       <c r="E3">
-        <v>2201.606885761249</v>
+        <v>2198.281541360206</v>
       </c>
       <c r="F3">
-        <v>2184.514313820853</v>
+        <v>2175.468747652749</v>
       </c>
       <c r="G3">
-        <v>1768.334091166898</v>
+        <v>1758.728407197068</v>
       </c>
       <c r="H3">
-        <v>2202.387130431995</v>
+        <v>2199.1544874952</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -482,25 +482,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2134.223707206921</v>
+        <v>2137.053585636186</v>
       </c>
       <c r="C4">
-        <v>1121.183306044844</v>
+        <v>1091.483546524667</v>
       </c>
       <c r="D4">
-        <v>1046.252314260004</v>
+        <v>1168.24800816763</v>
       </c>
       <c r="E4">
-        <v>2178.408688171938</v>
+        <v>2182.37717706186</v>
       </c>
       <c r="F4">
-        <v>2137.004174443122</v>
+        <v>2140.972146697585</v>
       </c>
       <c r="G4">
-        <v>1771.385937107427</v>
+        <v>1790.468620267036</v>
       </c>
       <c r="H4">
-        <v>2180.219103371565</v>
+        <v>2185.232853069941</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -508,25 +508,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2184.588446198372</v>
+        <v>2185.644299389824</v>
       </c>
       <c r="C5">
-        <v>1125.261196947115</v>
+        <v>1087.172696662512</v>
       </c>
       <c r="D5">
-        <v>1050.716306735508</v>
+        <v>1115.182825106267</v>
       </c>
       <c r="E5">
-        <v>2198.951043606867</v>
+        <v>2198.448727043448</v>
       </c>
       <c r="F5">
-        <v>2185.240087232406</v>
+        <v>2186.25031428364</v>
       </c>
       <c r="G5">
-        <v>1696.724731045043</v>
+        <v>1733.335909486131</v>
       </c>
       <c r="H5">
-        <v>2199.509380308793</v>
+        <v>2198.93044950322</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -534,25 +534,25 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2190.810902805146</v>
+        <v>2189.171813444799</v>
       </c>
       <c r="C6">
-        <v>1103.837453310326</v>
+        <v>1074.256632366303</v>
       </c>
       <c r="D6">
-        <v>362.6284403737303</v>
+        <v>359.9883736713294</v>
       </c>
       <c r="E6">
-        <v>2206.670585597019</v>
+        <v>2206.567653102345</v>
       </c>
       <c r="F6">
-        <v>2191.438427965602</v>
+        <v>2189.8662904524</v>
       </c>
       <c r="G6">
-        <v>1252.015568647364</v>
+        <v>1245.614113272291</v>
       </c>
       <c r="H6">
-        <v>2207.103148948721</v>
+        <v>2207.014299148433</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -560,25 +560,25 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2172.524713790897</v>
+        <v>2180.977037182337</v>
       </c>
       <c r="C7">
-        <v>1154.182764083716</v>
+        <v>1089.558014511482</v>
       </c>
       <c r="D7">
-        <v>535.7477298025481</v>
+        <v>537.6386077294949</v>
       </c>
       <c r="E7">
-        <v>2191.721997665262</v>
+        <v>2196.407198532715</v>
       </c>
       <c r="F7">
-        <v>2173.658829612546</v>
+        <v>2181.567174416565</v>
       </c>
       <c r="G7">
-        <v>1349.580071416546</v>
+        <v>1334.0628601925</v>
       </c>
       <c r="H7">
-        <v>2192.770205129404</v>
+        <v>2196.898876819457</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -586,25 +586,25 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2174.232017974375</v>
+        <v>2177.083779136897</v>
       </c>
       <c r="C8">
-        <v>1048.501688302613</v>
+        <v>1066.649783384992</v>
       </c>
       <c r="D8">
-        <v>633.0908430649812</v>
+        <v>668.523923602296</v>
       </c>
       <c r="E8">
-        <v>2188.904419689039</v>
+        <v>2202.04037780713</v>
       </c>
       <c r="F8">
-        <v>2174.829099415711</v>
+        <v>2178.004103380298</v>
       </c>
       <c r="G8">
-        <v>1347.754846155285</v>
+        <v>1393.018358742374</v>
       </c>
       <c r="H8">
-        <v>2189.482557421556</v>
+        <v>2202.602692994878</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -612,25 +612,25 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2186.103315481719</v>
+        <v>2174.894018305539</v>
       </c>
       <c r="C9">
-        <v>1134.340219809489</v>
+        <v>1076.130534611789</v>
       </c>
       <c r="D9">
-        <v>616.5541332604442</v>
+        <v>525.1415038746791</v>
       </c>
       <c r="E9">
-        <v>2194.535756323377</v>
+        <v>2189.386429277899</v>
       </c>
       <c r="F9">
-        <v>2187.41046822575</v>
+        <v>2175.717510325986</v>
       </c>
       <c r="G9">
-        <v>1364.57542459144</v>
+        <v>1322.400537924043</v>
       </c>
       <c r="H9">
-        <v>2195.799347806329</v>
+        <v>2190.068813435418</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -638,25 +638,25 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1946.701420854897</v>
+        <v>1982.268981882027</v>
       </c>
       <c r="C10">
-        <v>1228.166133370289</v>
+        <v>1150.60471713456</v>
       </c>
       <c r="D10">
-        <v>1004.768125513142</v>
+        <v>867.2515377798063</v>
       </c>
       <c r="E10">
-        <v>2045.207259279136</v>
+        <v>2047.651974528498</v>
       </c>
       <c r="F10">
-        <v>1963.41524271665</v>
+        <v>1994.273616922512</v>
       </c>
       <c r="G10">
-        <v>1657.608033392178</v>
+        <v>1526.255171077194</v>
       </c>
       <c r="H10">
-        <v>2056.801072003444</v>
+        <v>2056.576162964558</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -664,25 +664,25 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1895.566769401754</v>
+        <v>1934.783579288838</v>
       </c>
       <c r="C11">
-        <v>1294.365777851517</v>
+        <v>1229.289304787239</v>
       </c>
       <c r="D11">
-        <v>843.8725314057115</v>
+        <v>702.9886369968052</v>
       </c>
       <c r="E11">
-        <v>2033.936097627198</v>
+        <v>2038.003105663709</v>
       </c>
       <c r="F11">
-        <v>1912.761164030131</v>
+        <v>1945.703656658777</v>
       </c>
       <c r="G11">
-        <v>1635.170310488515</v>
+        <v>1513.803673941397</v>
       </c>
       <c r="H11">
-        <v>2044.274956698688</v>
+        <v>2044.69961018216</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -690,25 +690,25 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1637.698552672618</v>
+        <v>1603.012079542819</v>
       </c>
       <c r="C12">
-        <v>1172.687020782348</v>
+        <v>1064.299370334873</v>
       </c>
       <c r="D12">
-        <v>198.0395115404653</v>
+        <v>187.6240538962488</v>
       </c>
       <c r="E12">
-        <v>1876.610898948367</v>
+        <v>1810.087415029454</v>
       </c>
       <c r="F12">
-        <v>1646.942019134947</v>
+        <v>1611.934935421601</v>
       </c>
       <c r="G12">
-        <v>1247.307099901423</v>
+        <v>1135.666448234967</v>
       </c>
       <c r="H12">
-        <v>1880.46872151288</v>
+        <v>1814.318380540977</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -716,25 +716,25 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1929.418281600073</v>
+        <v>1935.184036372269</v>
       </c>
       <c r="C13">
-        <v>1219.485333534142</v>
+        <v>1134.02382014775</v>
       </c>
       <c r="D13">
-        <v>752.61671157398</v>
+        <v>636.0584177506209</v>
       </c>
       <c r="E13">
-        <v>2034.261254671876</v>
+        <v>2015.670070998664</v>
       </c>
       <c r="F13">
-        <v>1942.524931502256</v>
+        <v>1945.131910108146</v>
       </c>
       <c r="G13">
-        <v>1529.951663943509</v>
+        <v>1399.468921841119</v>
       </c>
       <c r="H13">
-        <v>2043.082140312506</v>
+        <v>2022.734529898999</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_laag.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_laag.xlsx
@@ -430,25 +430,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2161.664478555412</v>
+        <v>2162</v>
       </c>
       <c r="C2">
-        <v>1259.515021509692</v>
+        <v>1260</v>
       </c>
       <c r="D2">
-        <v>1086.347674277047</v>
+        <v>1086</v>
       </c>
       <c r="E2">
-        <v>2190.612819734337</v>
+        <v>2191</v>
       </c>
       <c r="F2">
-        <v>2163.494249335985</v>
+        <v>2163</v>
       </c>
       <c r="G2">
-        <v>1756.621417788585</v>
+        <v>1757</v>
       </c>
       <c r="H2">
-        <v>2191.836608159397</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -456,25 +456,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2174.162251111631</v>
+        <v>2174</v>
       </c>
       <c r="C3">
-        <v>1116.668032735869</v>
+        <v>1117</v>
       </c>
       <c r="D3">
-        <v>1055.216169323907</v>
+        <v>1055</v>
       </c>
       <c r="E3">
-        <v>2198.281541360206</v>
+        <v>2198</v>
       </c>
       <c r="F3">
-        <v>2175.468747652749</v>
+        <v>2175</v>
       </c>
       <c r="G3">
-        <v>1758.728407197068</v>
+        <v>1759</v>
       </c>
       <c r="H3">
-        <v>2199.1544874952</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -482,25 +482,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2137.053585636186</v>
+        <v>2137</v>
       </c>
       <c r="C4">
-        <v>1091.483546524667</v>
+        <v>1091</v>
       </c>
       <c r="D4">
-        <v>1168.24800816763</v>
+        <v>1168</v>
       </c>
       <c r="E4">
-        <v>2182.37717706186</v>
+        <v>2182</v>
       </c>
       <c r="F4">
-        <v>2140.972146697585</v>
+        <v>2141</v>
       </c>
       <c r="G4">
-        <v>1790.468620267036</v>
+        <v>1790</v>
       </c>
       <c r="H4">
-        <v>2185.232853069941</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -508,25 +508,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2185.644299389824</v>
+        <v>2186</v>
       </c>
       <c r="C5">
-        <v>1087.172696662512</v>
+        <v>1087</v>
       </c>
       <c r="D5">
-        <v>1115.182825106267</v>
+        <v>1115</v>
       </c>
       <c r="E5">
-        <v>2198.448727043448</v>
+        <v>2198</v>
       </c>
       <c r="F5">
-        <v>2186.25031428364</v>
+        <v>2186</v>
       </c>
       <c r="G5">
-        <v>1733.335909486131</v>
+        <v>1733</v>
       </c>
       <c r="H5">
-        <v>2198.93044950322</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -534,25 +534,25 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2189.171813444799</v>
+        <v>2189</v>
       </c>
       <c r="C6">
-        <v>1074.256632366303</v>
+        <v>1074</v>
       </c>
       <c r="D6">
-        <v>359.9883736713294</v>
+        <v>360</v>
       </c>
       <c r="E6">
-        <v>2206.567653102345</v>
+        <v>2207</v>
       </c>
       <c r="F6">
-        <v>2189.8662904524</v>
+        <v>2190</v>
       </c>
       <c r="G6">
-        <v>1245.614113272291</v>
+        <v>1246</v>
       </c>
       <c r="H6">
-        <v>2207.014299148433</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -560,25 +560,25 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2180.977037182337</v>
+        <v>2181</v>
       </c>
       <c r="C7">
-        <v>1089.558014511482</v>
+        <v>1090</v>
       </c>
       <c r="D7">
-        <v>537.6386077294949</v>
+        <v>538</v>
       </c>
       <c r="E7">
-        <v>2196.407198532715</v>
+        <v>2196</v>
       </c>
       <c r="F7">
-        <v>2181.567174416565</v>
+        <v>2182</v>
       </c>
       <c r="G7">
-        <v>1334.0628601925</v>
+        <v>1334</v>
       </c>
       <c r="H7">
-        <v>2196.898876819457</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -586,25 +586,25 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2177.083779136897</v>
+        <v>2177</v>
       </c>
       <c r="C8">
-        <v>1066.649783384992</v>
+        <v>1067</v>
       </c>
       <c r="D8">
-        <v>668.523923602296</v>
+        <v>669</v>
       </c>
       <c r="E8">
-        <v>2202.04037780713</v>
+        <v>2202</v>
       </c>
       <c r="F8">
-        <v>2178.004103380298</v>
+        <v>2178</v>
       </c>
       <c r="G8">
-        <v>1393.018358742374</v>
+        <v>1393</v>
       </c>
       <c r="H8">
-        <v>2202.602692994878</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -612,25 +612,25 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2174.894018305539</v>
+        <v>2175</v>
       </c>
       <c r="C9">
-        <v>1076.130534611789</v>
+        <v>1076</v>
       </c>
       <c r="D9">
-        <v>525.1415038746791</v>
+        <v>525</v>
       </c>
       <c r="E9">
-        <v>2189.386429277899</v>
+        <v>2189</v>
       </c>
       <c r="F9">
-        <v>2175.717510325986</v>
+        <v>2176</v>
       </c>
       <c r="G9">
-        <v>1322.400537924043</v>
+        <v>1322</v>
       </c>
       <c r="H9">
-        <v>2190.068813435418</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -638,25 +638,25 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1982.268981882027</v>
+        <v>1982</v>
       </c>
       <c r="C10">
-        <v>1150.60471713456</v>
+        <v>1151</v>
       </c>
       <c r="D10">
-        <v>867.2515377798063</v>
+        <v>867</v>
       </c>
       <c r="E10">
-        <v>2047.651974528498</v>
+        <v>2048</v>
       </c>
       <c r="F10">
-        <v>1994.273616922512</v>
+        <v>1994</v>
       </c>
       <c r="G10">
-        <v>1526.255171077194</v>
+        <v>1526</v>
       </c>
       <c r="H10">
-        <v>2056.576162964558</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -664,25 +664,25 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1934.783579288838</v>
+        <v>1935</v>
       </c>
       <c r="C11">
-        <v>1229.289304787239</v>
+        <v>1229</v>
       </c>
       <c r="D11">
-        <v>702.9886369968052</v>
+        <v>703</v>
       </c>
       <c r="E11">
-        <v>2038.003105663709</v>
+        <v>2038</v>
       </c>
       <c r="F11">
-        <v>1945.703656658777</v>
+        <v>1946</v>
       </c>
       <c r="G11">
-        <v>1513.803673941397</v>
+        <v>1514</v>
       </c>
       <c r="H11">
-        <v>2044.69961018216</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -690,25 +690,25 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1603.012079542819</v>
+        <v>1603</v>
       </c>
       <c r="C12">
-        <v>1064.299370334873</v>
+        <v>1064</v>
       </c>
       <c r="D12">
-        <v>187.6240538962488</v>
+        <v>188</v>
       </c>
       <c r="E12">
-        <v>1810.087415029454</v>
+        <v>1810</v>
       </c>
       <c r="F12">
-        <v>1611.934935421601</v>
+        <v>1612</v>
       </c>
       <c r="G12">
-        <v>1135.666448234967</v>
+        <v>1136</v>
       </c>
       <c r="H12">
-        <v>1814.318380540977</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -716,25 +716,25 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1935.184036372269</v>
+        <v>1935</v>
       </c>
       <c r="C13">
-        <v>1134.02382014775</v>
+        <v>1134</v>
       </c>
       <c r="D13">
-        <v>636.0584177506209</v>
+        <v>636</v>
       </c>
       <c r="E13">
-        <v>2015.670070998664</v>
+        <v>2016</v>
       </c>
       <c r="F13">
-        <v>1945.131910108146</v>
+        <v>1945</v>
       </c>
       <c r="G13">
-        <v>1399.468921841119</v>
+        <v>1399</v>
       </c>
       <c r="H13">
-        <v>2022.734529898999</v>
+        <v>2023</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_laag.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_laag.xlsx
@@ -474,7 +474,7 @@
         <v>1758.728407197068</v>
       </c>
       <c r="H3">
-        <v>2199.1544874952</v>
+        <v>2199.154487495199</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -482,7 +482,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2137.053585636186</v>
+        <v>2137.053585636187</v>
       </c>
       <c r="C4">
         <v>1091.483546524667</v>
@@ -560,7 +560,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2180.977037182337</v>
+        <v>2180.977037182338</v>
       </c>
       <c r="C7">
         <v>1089.558014511482</v>
@@ -612,7 +612,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2174.894018305539</v>
+        <v>2174.89401830554</v>
       </c>
       <c r="C9">
         <v>1076.130534611789</v>
@@ -644,7 +644,7 @@
         <v>1150.60471713456</v>
       </c>
       <c r="D10">
-        <v>867.2515377798063</v>
+        <v>867.2515377798064</v>
       </c>
       <c r="E10">
         <v>2047.651974528498</v>
@@ -682,7 +682,7 @@
         <v>1513.803673941397</v>
       </c>
       <c r="H11">
-        <v>2044.69961018216</v>
+        <v>2044.699610182161</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -722,7 +722,7 @@
         <v>1134.02382014775</v>
       </c>
       <c r="D13">
-        <v>636.0584177506209</v>
+        <v>636.0584177506207</v>
       </c>
       <c r="E13">
         <v>2015.670070998664</v>
